--- a/exports/policy_y0.xlsx
+++ b/exports/policy_y0.xlsx
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.468834638595581</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.10783052444458</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.55551290512085</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="38">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>6.66661548614502</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7.777718067169189</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>7.953155517578125</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="56">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>7.894676208496094</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="62">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="74">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>5.203251838684082</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>5.84224796295166</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.263117790222168</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="92">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.66661548614502</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="98">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>7.777718067169189</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="104">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>7.953155517578125</v>
+        <v>13.87533855438232</v>
       </c>
     </row>
     <row r="110">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>8.420988082885742</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="116">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>3.508744955062866</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>8.771862983703613</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>3.468834638595581</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>4.10783052444458</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>4.970722198486328</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>5.964866638183594</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="152">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="158">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>6.081824779510498</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>6.842052936553955</v>
+        <v>12.3234920501709</v>
       </c>
     </row>
     <row r="170">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2.923954248428345</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>9.356653213500977</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="176">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>3.859619617462158</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>9.649048805236816</v>
+        <v>18.07445526123047</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>5.203251838684082</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>3.742661476135254</v>
+        <v>5.84224796295166</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.55551290512085</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>5.964866638183594</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="206">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="212">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>6.081824779510498</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="218">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>6.315741062164307</v>
+        <v>12.3234920501709</v>
       </c>
     </row>
     <row r="224">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>2.339163303375244</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>7.017489910125732</v>
+        <v>13.69276809692383</v>
       </c>
     </row>
     <row r="230">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>3.859619617462158</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>7.075969219207764</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="236">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>4.912242889404297</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>8.420988082885742</v>
+        <v>18.62216567993164</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.44441032409668</v>
+        <v>6.937669277191162</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>4.970722198486328</v>
+        <v>7.759235382080078</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>5.964866638183594</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>6.081824779510498</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>6.842052936553955</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="278">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>2.80699610710144</v>
+        <v>2.92112398147583</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>7.017490386962891</v>
+        <v>13.69276809692383</v>
       </c>
     </row>
     <row r="284">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>3.859619617462158</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>7.719239234924316</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="290">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>4.912242889404297</v>
+        <v>6.207388401031494</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>3.040912389755249</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>6.081824779510498</v>
+        <v>7.120239734649658</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>9.122736930847168</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.555513381958008</v>
+        <v>8.672086715698242</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>5.964866638183594</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="320">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>6.081824779510498</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="326">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>6.842052936553955</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="332">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>2.923954248428345</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>7.017490386962891</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="338">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>2.738553762435913</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>4.093535900115967</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>7.719239234924316</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="344">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>4.912242889404297</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>4.564256191253662</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>2.923954248428345</v>
+        <v>5.933533191680908</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>2.923954248428345</v>
+        <v>5.933533191680908</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>3.801140546798706</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>6.081824779510498</v>
+        <v>7.759235382080078</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>9.122736930847168</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>2.923954248428345</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>2.923954248428345</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>4.093535900115967</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>6.549657344818115</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>9.824485778808594</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5.964866638183594</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.315741062164307</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>6.315741062164307</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>6.842052936553955</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="386">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>3.157870531082153</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>7.017490386962891</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>4.210494041442871</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>7.719239234924316</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="398">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>4.912243366241455</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="404">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>3.040912389755249</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>5.321596622467041</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>9.122736930847168</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>0</v>
+        <v>6.024817943572998</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>3.859619617462158</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>3.859619617462158</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>4.912243366241455</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>6.666615962982178</v>
+        <v>9.31108283996582</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>9.824485778808594</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>4.210494041442871</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>3.859619617462158</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>7.894676208496094</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>10.52623558044434</v>
+        <v>20.53915214538574</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>6.140304088592529</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>6.549657821655273</v>
+        <v>12.1409215927124</v>
       </c>
     </row>
     <row r="434">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>6.549657821655273</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="440">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>3.274828910827637</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>7.368364810943604</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="446">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>2.555983543395996</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>4.093535900115967</v>
+        <v>4.472970962524414</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>7.368364810943604</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="452">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>4.912243366241455</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="458">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>2.865475177764893</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>4.093535900115967</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>6.140304088592529</v>
+        <v>7.66795015335083</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>9.122736930847168</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>3.274828910827637</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>2.865475177764893</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>4.093535900115967</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>6.549657344818115</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>9.82448673248291</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>4.912243366241455</v>
+        <v>9.584938049316406</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>4.912243366241455</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>6.140304088592529</v>
+        <v>9.584938049316406</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>7.894676685333252</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>10.52623558044434</v>
+        <v>20.53915214538574</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>5.321596622467041</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>4.912243366241455</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>6.549657344818115</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>8.420988082885742</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>11.22798442840576</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>6.549657821655273</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>7.017490386962891</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="494">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>0</v>
+        <v>1.460561990737915</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>3.274828910827637</v>
+        <v>3.651404857635498</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>7.485322952270508</v>
+        <v>14.60561943054199</v>
       </c>
     </row>
     <row r="500">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>1.460561990737915</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>4.210494041442871</v>
+        <v>5.020681858062744</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>7.953155517578125</v>
+        <v>15.06204509735107</v>
       </c>
     </row>
     <row r="506">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>2.80699610710144</v>
+        <v>4.381685733795166</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>5.146159648895264</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="512">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>3.040912389755249</v>
+        <v>4.746826648712158</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>5.321596622467041</v>
+        <v>8.30694580078125</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>9.122736930847168</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>4.210494041442871</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>3.742661476135254</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>5.146159648895264</v>
+        <v>8.033090591430664</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>7.017490386962891</v>
+        <v>9.493653297424316</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>9.82448673248291</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>0</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>4.210494041442871</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>4.210494041442871</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>7.894676685333252</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>10.52623558044434</v>
+        <v>20.53915214538574</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>0</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>6.081824779510498</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>6.081824779510498</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>7.017490386962891</v>
+        <v>10.95421504974365</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>11.22798442840576</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>7.759235382080078</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>6.081824779510498</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>6.081824779510498</v>
+        <v>10.86292934417725</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>7.485322952270508</v>
+        <v>11.68449592590332</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>8.947299957275391</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>11.92973327636719</v>
+        <v>23.27770614624023</v>
       </c>
     </row>
     <row r="542">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>2.105247020721436</v>
+        <v>1.643132209777832</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>6.842052936553955</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="548">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>3.157870531082153</v>
+        <v>4.10783052444458</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>7.368364810943604</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="554">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>4.210494041442871</v>
+        <v>4.929396629333496</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>7.894676685333252</v>
+        <v>15.60975646972656</v>
       </c>
     </row>
     <row r="560">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>0</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>2.105247020721436</v>
+        <v>3.286264419555664</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>5.263117790222168</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>8.420988082885742</v>
+        <v>16.43132209777832</v>
       </c>
     </row>
     <row r="566">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>3.157870531082153</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>4.210494041442871</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>6.315741062164307</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>9.473611831665039</v>
+        <v>17.80059814453125</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>5.111967086791992</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>3.157870531082153</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>3.157870531082153</v>
+        <v>6.38995885848999</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>4.093535900115967</v>
+        <v>6.572528839111328</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>6.549657344818115</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>9.999923706054688</v>
+        <v>19.16987609863281</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>0</v>
+        <v>5.477107524871826</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>5.263117790222168</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>5.263117790222168</v>
+        <v>8.21566104888916</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>6.315741062164307</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>7.894676685333252</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>10.52623558044434</v>
+        <v>20.53915214538574</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>7.302809715270996</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>5.263117790222168</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>5.263117790222168</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>6.549657344818115</v>
+        <v>10.22393417358398</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>8.420988082885742</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>11.22798442840576</v>
+        <v>21.9084300994873</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>3.157870531082153</v>
+        <v>7.759235382080078</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>7.368364810943604</v>
+        <v>11.50192546844482</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>9.473611831665039</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>11.92973327636719</v>
+        <v>23.27770614624023</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>4.210494041442871</v>
+        <v>9.858793258666992</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>7.368364810943604</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>8.420988082885742</v>
+        <v>13.14505767822266</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>10.52623558044434</v>
+        <v>14.78818988800049</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>12.63148212432861</v>
+        <v>24.6469841003418</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y0.xlsx
+++ b/exports/policy_y0.xlsx
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.468834638595581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>4.10783052444458</v>
+        <v>3.359566688537598</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479422092437744</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7.302809715270996</v>
+        <v>5.599277496337891</v>
       </c>
     </row>
     <row r="38">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>9.31108283996582</v>
+        <v>6.719133377075195</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>12.1409215927124</v>
+        <v>7.838988780975342</v>
       </c>
     </row>
     <row r="50">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>4.715181350708008</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958844184875488</v>
       </c>
     </row>
     <row r="56">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>5.30457878112793</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870006561279</v>
       </c>
     </row>
     <row r="62">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>5.203251838684082</v>
+        <v>3.359566688537598</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>5.84224796295166</v>
+        <v>4.479422569274902</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599277973175049</v>
       </c>
     </row>
     <row r="92">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>9.31108283996582</v>
+        <v>6.719133377075195</v>
       </c>
     </row>
     <row r="98">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>10.86292934417725</v>
+        <v>7.838988780975342</v>
       </c>
     </row>
     <row r="104">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>4.715181350708008</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>13.87533855438232</v>
+        <v>8.958844184875488</v>
       </c>
     </row>
     <row r="110">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>5.835036754608154</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>15.60975646972656</v>
+        <v>10.07870006561279</v>
       </c>
     </row>
     <row r="116">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>3.651404857635498</v>
+        <v>5.89397668838501</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>16.43132209777832</v>
+        <v>11.1985559463501</v>
       </c>
     </row>
     <row r="122">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>3.468834638595581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4.10783052444458</v>
+        <v>3.00592827796936</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479422569274902</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>7.302809715270996</v>
+        <v>5.599277973175049</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>9.31108283996582</v>
+        <v>6.719133377075195</v>
       </c>
     </row>
     <row r="152">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>10.86292934417725</v>
+        <v>7.8389892578125</v>
       </c>
     </row>
     <row r="158">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>4.715181350708008</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>10.95421504974365</v>
+        <v>8.958845138549805</v>
       </c>
     </row>
     <row r="164">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>12.3234920501709</v>
+        <v>10.07870006561279</v>
       </c>
     </row>
     <row r="170">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>2.946988344192505</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2.738553762435913</v>
+        <v>7.072772026062012</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>14.60561943054199</v>
+        <v>11.1985559463501</v>
       </c>
     </row>
     <row r="176">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>2.555983543395996</v>
+        <v>3.890024662017822</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>5.020681858062744</v>
+        <v>7.131711959838867</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>18.07445526123047</v>
+        <v>12.31841087341309</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>5.203251838684082</v>
+        <v>3.359567165374756</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>5.84224796295166</v>
+        <v>4.007904529571533</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>9.31108283996582</v>
+        <v>6.719133853912354</v>
       </c>
     </row>
     <row r="206">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>10.86292934417725</v>
+        <v>7.8389892578125</v>
       </c>
     </row>
     <row r="212">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>5.658217906951904</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>11.68449592590332</v>
+        <v>8.958845138549805</v>
       </c>
     </row>
     <row r="218">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>5.835037231445312</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>12.3234920501709</v>
+        <v>10.07870006561279</v>
       </c>
     </row>
     <row r="224">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>3.651404857635498</v>
+        <v>6.48337459564209</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>13.69276809692383</v>
+        <v>11.1985559463501</v>
       </c>
     </row>
     <row r="230">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>2.738553762435913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>2.738553762435913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>2.738553762435913</v>
+        <v>3.890024662017822</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>4.381685733795166</v>
+        <v>7.780049324035645</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>15.06204509735107</v>
+        <v>12.3184118270874</v>
       </c>
     </row>
     <row r="236">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>3.286264419555664</v>
+        <v>4.950940608978271</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>6.572528839111328</v>
+        <v>8.487326622009277</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>18.62216567993164</v>
+        <v>13.43826675415039</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>6.937669277191162</v>
+        <v>4.479423046112061</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>7.759235382080078</v>
+        <v>5.009880542755127</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>9.858793258666992</v>
+        <v>6.719133853912354</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>10.86292934417725</v>
+        <v>7.8389892578125</v>
       </c>
     </row>
     <row r="266">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>4.715181350708008</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>11.68449592590332</v>
+        <v>8.958845138549805</v>
       </c>
     </row>
     <row r="272">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="278">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>3.064868211746216</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>2.92112398147583</v>
+        <v>7.07277250289917</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>13.69276809692383</v>
+        <v>11.1985559463501</v>
       </c>
     </row>
     <row r="284">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>3.241687297821045</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>5.020681858062744</v>
+        <v>7.131711959838867</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>15.06204509735107</v>
+        <v>12.3184118270874</v>
       </c>
     </row>
     <row r="290">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>4.381685733795166</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>4.381685733795166</v>
+        <v>2.829109191894531</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>4.381685733795166</v>
+        <v>4.950940608978271</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>6.207388401031494</v>
+        <v>9.19460391998291</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826675415039</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>4.746826648712158</v>
+        <v>3.064867973327637</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>4.746826648712158</v>
+        <v>4.007904529571533</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>4.746826648712158</v>
+        <v>3.772145509719849</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>4.746826648712158</v>
+        <v>6.129735946655273</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>7.120239734649658</v>
+        <v>9.19460391998291</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>17.80059814453125</v>
+        <v>14.5581226348877</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>8.672086715698242</v>
+        <v>5.599278450012207</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>9.31108283996582</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>10.86292934417725</v>
+        <v>7.838989734649658</v>
       </c>
     </row>
     <row r="320">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>11.68449592590332</v>
+        <v>8.958845138549805</v>
       </c>
     </row>
     <row r="326">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="332">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>3.651404857635498</v>
+        <v>6.48337459564209</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>14.60561943054199</v>
+        <v>11.1985559463501</v>
       </c>
     </row>
     <row r="338">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>2.738553762435913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>2.738553762435913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>2.738553762435913</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>4.564256191253662</v>
+        <v>8.428386688232422</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>15.06204509735107</v>
+        <v>12.3184118270874</v>
       </c>
     </row>
     <row r="344">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>3.286264419555664</v>
+        <v>2.946988821029663</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>3.286264419555664</v>
+        <v>5.009881019592285</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>6.572528839111328</v>
+        <v>8.487326622009277</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826770782471</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>4.564256191253662</v>
+        <v>2.946988821029663</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>5.933533191680908</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>5.933533191680908</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>6.38995885848999</v>
+        <v>6.129735946655273</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>7.759235382080078</v>
+        <v>9.960821151733398</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>17.80059814453125</v>
+        <v>14.5581226348877</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>5.111967086791992</v>
+        <v>4.125783920288086</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>6.38995885848999</v>
+        <v>5.009881019592285</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>6.38995885848999</v>
+        <v>5.009881019592285</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>6.38995885848999</v>
+        <v>6.601253986358643</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>8.21566104888916</v>
+        <v>10.72703742980957</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>19.16987609863281</v>
+        <v>15.677978515625</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>9.858793258666992</v>
+        <v>6.719134330749512</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>10.86292934417725</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="374">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>3.89002513885498</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>11.68449592590332</v>
+        <v>8.958845138549805</v>
       </c>
     </row>
     <row r="380">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="386">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>3.286264419555664</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>14.60561943054199</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="392">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>3.241687297821045</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>5.020681858062744</v>
+        <v>7.131711959838867</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>15.06204509735107</v>
+        <v>12.3184118270874</v>
       </c>
     </row>
     <row r="398">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>4.381685733795166</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>4.381685733795166</v>
+        <v>2.829109191894531</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>4.381685733795166</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>6.024817943572998</v>
+        <v>9.19460391998291</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826770782471</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>3.064867973327637</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>4.746826648712158</v>
+        <v>3.89002513885498</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>4.746826648712158</v>
+        <v>3.89002513885498</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>4.746826648712158</v>
+        <v>5.363519191741943</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>8.30694580078125</v>
+        <v>9.19460391998291</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>17.80059814453125</v>
+        <v>14.5581226348877</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>6.024817943572998</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>7.66795015335083</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>6.572528839111328</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>7.66795015335083</v>
+        <v>7.426411151885986</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>9.31108283996582</v>
+        <v>10.72703838348389</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>19.16987609863281</v>
+        <v>15.677978515625</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>5.477107524871826</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>8.21566104888916</v>
+        <v>6.011857032775879</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>8.21566104888916</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>8.21566104888916</v>
+        <v>7.956868648529053</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>9.858793258666992</v>
+        <v>11.49325466156006</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>20.53915214538574</v>
+        <v>16.7978343963623</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>10.86292934417725</v>
+        <v>7.838990211486816</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>12.1409215927124</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="434">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="440">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>3.651404857635498</v>
+        <v>6.483375072479248</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>14.60561943054199</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="446">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>2.555983543395996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>2.555983543395996</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>4.472970962524414</v>
+        <v>7.013833045959473</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>15.06204509735107</v>
+        <v>12.3184118270874</v>
       </c>
     </row>
     <row r="452">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>3.286264419555664</v>
+        <v>2.888048887252808</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>3.286264419555664</v>
+        <v>4.243663311004639</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>6.572528839111328</v>
+        <v>8.487326622009277</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826770782471</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>6.38995885848999</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>6.38995885848999</v>
+        <v>4.125784397125244</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>6.38995885848999</v>
+        <v>6.188676357269287</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>7.66795015335083</v>
+        <v>9.960821151733398</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>17.80059814453125</v>
+        <v>14.55812358856201</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>5.111967086791992</v>
+        <v>4.125783920288086</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>6.38995885848999</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>6.38995885848999</v>
+        <v>4.95094108581543</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>6.38995885848999</v>
+        <v>6.601253986358643</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>10.22393417358398</v>
+        <v>10.72703838348389</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>19.16987609863281</v>
+        <v>15.677978515625</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>5.477107524871826</v>
+        <v>5.363519668579102</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>9.584938049316406</v>
+        <v>6.188676357269287</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>8.30694580078125</v>
+        <v>6.188676357269287</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>9.584938049316406</v>
+        <v>8.840965270996094</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>10.86292934417725</v>
+        <v>12.37735176086426</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>20.53915214538574</v>
+        <v>16.7978343963623</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>7.302809715270996</v>
+        <v>6.601253986358643</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>10.22393417358398</v>
+        <v>6.601253986358643</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>10.22393417358398</v>
+        <v>6.601253986358643</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>10.22393417358398</v>
+        <v>9.430362701416016</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>11.50192546844482</v>
+        <v>12.25947189331055</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>21.9084300994873</v>
+        <v>17.91769027709961</v>
       </c>
     </row>
     <row r="482">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>11.68449592590332</v>
+        <v>8.958846092224121</v>
       </c>
     </row>
     <row r="488">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>13.14505767822266</v>
+        <v>9.548243522644043</v>
       </c>
     </row>
     <row r="494">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>1.460561990737915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>3.651404857635498</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>14.60561943054199</v>
+        <v>11.19855690002441</v>
       </c>
     </row>
     <row r="500">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>1.460561990737915</v>
+        <v>3.241687536239624</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>5.020681858062744</v>
+        <v>7.780049800872803</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>15.06204509735107</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="506">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>4.381685733795166</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>4.381685733795166</v>
+        <v>3.300627470016479</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>4.381685733795166</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>6.572528839111328</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826770782471</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>3.064867973327637</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>4.746826648712158</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>4.746826648712158</v>
+        <v>3.772145509719849</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>4.746826648712158</v>
+        <v>5.363519191741943</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>8.30694580078125</v>
+        <v>9.19460391998291</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>17.80059814453125</v>
+        <v>14.55812358856201</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>5.111967086791992</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>8.033090591430664</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>8.033090591430664</v>
+        <v>5.186700344085693</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>8.033090591430664</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>9.493653297424316</v>
+        <v>11.55219459533691</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>19.16987609863281</v>
+        <v>15.677978515625</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>5.477107524871826</v>
+        <v>5.304579257965088</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>8.21566104888916</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>8.21566104888916</v>
+        <v>6.129736423492432</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>8.21566104888916</v>
+        <v>7.956869125366211</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>10.22393417358398</v>
+        <v>11.49325561523438</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>20.53915214538574</v>
+        <v>16.7978343963623</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>7.302809715270996</v>
+        <v>6.601254940032959</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>10.95421504974365</v>
+        <v>7.544291019439697</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>10.22393417358398</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>10.95421504974365</v>
+        <v>9.430362701416016</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>13.14505767822266</v>
+        <v>13.20250797271729</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>21.9084300994873</v>
+        <v>17.91769027709961</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>7.759235382080078</v>
+        <v>7.072772979736328</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>10.86292934417725</v>
+        <v>8.015809059143066</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>10.86292934417725</v>
+        <v>8.015809059143066</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>11.68449592590332</v>
+        <v>10.01976108551025</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>13.14505767822266</v>
+        <v>14.02766513824463</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>23.27770614624023</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="542">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>1.643132209777832</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>13.14505767822266</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="548">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>4.10783052444458</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>14.78818988800049</v>
+        <v>10.60915946960449</v>
       </c>
     </row>
     <row r="554">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>3.286264419555664</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>4.929396629333496</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>15.60975646972656</v>
+        <v>12.31841278076172</v>
       </c>
     </row>
     <row r="560">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>3.286264419555664</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>3.286264419555664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>3.286264419555664</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>6.572528839111328</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>16.43132209777832</v>
+        <v>13.43826770782471</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>3.182747840881348</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>6.572528839111328</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>6.572528839111328</v>
+        <v>4.243663787841797</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>6.572528839111328</v>
+        <v>5.835037708282471</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>8.21566104888916</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>17.80059814453125</v>
+        <v>14.55812358856201</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>5.111967086791992</v>
+        <v>4.125783920288086</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>6.38995885848999</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>6.38995885848999</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>6.572528839111328</v>
+        <v>6.601254463195801</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>10.22393417358398</v>
+        <v>10.07870101928711</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>19.16987609863281</v>
+        <v>15.67797946929932</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>5.477107524871826</v>
+        <v>5.304579734802246</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>9.858793258666992</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>8.21566104888916</v>
+        <v>6.365495681762695</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>9.858793258666992</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>11.50192546844482</v>
+        <v>12.37735176086426</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>20.53915214538574</v>
+        <v>16.7978343963623</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>7.302809715270996</v>
+        <v>6.601254463195801</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>10.22393417358398</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>10.22393417358398</v>
+        <v>6.601254463195801</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>10.22393417358398</v>
+        <v>9.548243522644043</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>11.50192546844482</v>
+        <v>13.2025089263916</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>21.9084300994873</v>
+        <v>17.91769027709961</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>7.759235382080078</v>
+        <v>7.426411628723145</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>13.14505767822266</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>11.50192546844482</v>
+        <v>8.487327575683594</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>13.14505767822266</v>
+        <v>11.02173709869385</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>14.78818988800049</v>
+        <v>14.02766513824463</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>23.27770614624023</v>
+        <v>19.03754615783691</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>9.858793258666992</v>
+        <v>8.487326622009277</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>13.14505767822266</v>
+        <v>9.548243522644043</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>13.14505767822266</v>
+        <v>8.487326622009277</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>13.14505767822266</v>
+        <v>11.67007446289062</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>14.78818988800049</v>
+        <v>14.85282230377197</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>24.6469841003418</v>
+        <v>20.15740203857422</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y0.xlsx
+++ b/exports/policy_y0.xlsx
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.475579142570496</v>
+        <v>4.357298374176025</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1.844473958015442</v>
+        <v>4.873294353485107</v>
       </c>
     </row>
     <row r="38">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.213368654251099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2.213368654251099</v>
+        <v>5.159958839416504</v>
       </c>
     </row>
     <row r="44">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.310446262359619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2.582263469696045</v>
+        <v>6.421281814575195</v>
       </c>
     </row>
     <row r="50">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>2.951158285140991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2.951158285140991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>2.951158285140991</v>
+        <v>7.338607788085938</v>
       </c>
     </row>
     <row r="56">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>3.145313501358032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2.970573902130127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3.320053100585938</v>
+        <v>7.739938259124756</v>
       </c>
     </row>
     <row r="62">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1.477054715156555</v>
+        <v>3.687650442123413</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.845949530601501</v>
+        <v>5.180598735809326</v>
       </c>
     </row>
     <row r="92">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.98170280456543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.214844226837158</v>
+        <v>5.867446422576904</v>
       </c>
     </row>
     <row r="98">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2.583739042282104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>2.583739042282104</v>
+        <v>6.03715181350708</v>
       </c>
     </row>
     <row r="104">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2.641830444335938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>2.952633857727051</v>
+        <v>6.437335014343262</v>
       </c>
     </row>
     <row r="110">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>3.321528673171997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>3.321528673171997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>3.321528673171997</v>
+        <v>7.757137775421143</v>
       </c>
     </row>
     <row r="116">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>3.496190786361694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>3.496190786361694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>3.690423488616943</v>
+        <v>8.617131233215332</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>1.478530287742615</v>
+        <v>4.400871276855469</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1.847425103187561</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="146">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>2.216319799423218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2.216319799423218</v>
+        <v>5.194358348846436</v>
       </c>
     </row>
     <row r="152">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>2.313086748123169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>2.585214614868164</v>
+        <v>6.457974910736084</v>
       </c>
     </row>
     <row r="158">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>2.95410943031311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>2.95410943031311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2.95410943031311</v>
+        <v>6.914344787597656</v>
       </c>
     </row>
     <row r="164">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>3.148109436035156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>2.973214387893677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>3.323004245758057</v>
+        <v>7.256048679351807</v>
       </c>
     </row>
     <row r="170">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>3.691899061203003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>3.691899061203003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>3.691899061203003</v>
+        <v>8.058709144592285</v>
       </c>
     </row>
     <row r="176">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>3.847067832946777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>3.847067832946777</v>
+        <v>4.430684566497803</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>4.060793876647949</v>
+        <v>9.49432373046875</v>
       </c>
     </row>
     <row r="182">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>1.480005860328674</v>
+        <v>3.724343538284302</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1.848900675773621</v>
+        <v>5.221878051757812</v>
       </c>
     </row>
     <row r="200">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1.984343290328979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>2.217795372009277</v>
+        <v>5.906432628631592</v>
       </c>
     </row>
     <row r="206">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>2.586690187454224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2.586690187454224</v>
+        <v>6.071551322937012</v>
       </c>
     </row>
     <row r="212">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>2.644470930099487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>2.95558500289917</v>
+        <v>6.469441413879395</v>
       </c>
     </row>
     <row r="218">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>3.324479818344116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>3.324479818344116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>3.324479818344116</v>
+        <v>7.791537761688232</v>
       </c>
     </row>
     <row r="224">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>3.498986482620239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>3.498986482620239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>3.693374633789062</v>
+        <v>8.074762344360352</v>
       </c>
     </row>
     <row r="230">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>4.06226921081543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>4.06226921081543</v>
+        <v>3.804609537124634</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>4.06226921081543</v>
+        <v>8.243320465087891</v>
       </c>
     </row>
     <row r="236">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>4.197945117950439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>4.197945117950439</v>
+        <v>5.53147554397583</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>4.431164264678955</v>
+        <v>9.680082321166992</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>1.481481432914734</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>1.85037624835968</v>
+        <v>4.951267242431641</v>
       </c>
     </row>
     <row r="254">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>2.219271183013916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>2.219271183013916</v>
+        <v>5.228758335113525</v>
       </c>
     </row>
     <row r="260">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>2.315727233886719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>2.588165760040283</v>
+        <v>6.494668006896973</v>
       </c>
     </row>
     <row r="266">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>2.957060575485229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>2.957060575485229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>2.957060575485229</v>
+        <v>6.948744297027588</v>
       </c>
     </row>
     <row r="272">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>3.150905132293701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>2.975854873657227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>3.325955390930176</v>
+        <v>7.288155078887939</v>
       </c>
     </row>
     <row r="278">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>3.694850206375122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>3.694850206375122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>3.694850206375122</v>
+        <v>8.090815544128418</v>
       </c>
     </row>
     <row r="284">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>3.849863767623901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>3.849863767623901</v>
+        <v>3.811489582061768</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>4.063745021820068</v>
+        <v>8.893475532531738</v>
       </c>
     </row>
     <row r="290">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>4.432639598846436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>4.432639598846436</v>
+        <v>4.848067760467529</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>4.432639598846436</v>
+        <v>9.003554344177246</v>
       </c>
     </row>
     <row r="296">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>4.548822402954102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>4.548822402954102</v>
+        <v>5.249398231506348</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>4.801534652709961</v>
+        <v>9.748882293701172</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>1.85185182094574</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="308">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>1.986983895301819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>2.220746755599976</v>
+        <v>5.945419311523438</v>
       </c>
     </row>
     <row r="314">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>2.589641332626343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>2.589641332626343</v>
+        <v>6.105951309204102</v>
       </c>
     </row>
     <row r="320">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>2.647111415863037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>2.958536148071289</v>
+        <v>6.501547813415527</v>
       </c>
     </row>
     <row r="326">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>3.327430963516235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>3.327430963516235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>3.327430963516235</v>
+        <v>7.825937271118164</v>
       </c>
     </row>
     <row r="332">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>3.501782417297363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>3.501782417297363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>3.696325778961182</v>
+        <v>8.106868743896484</v>
       </c>
     </row>
     <row r="338">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>4.065220832824707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>4.065220832824707</v>
+        <v>3.216374158859253</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>4.065220832824707</v>
+        <v>8.273134231567383</v>
       </c>
     </row>
     <row r="344">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>4.200740814208984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>4.200740814208984</v>
+        <v>4.856094360351562</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>4.434115409851074</v>
+        <v>9.712188720703125</v>
       </c>
     </row>
     <row r="350">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>4.803009986877441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>4.803009986877441</v>
+        <v>6.008485317230225</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>4.803009986877441</v>
+        <v>10.51484966278076</v>
       </c>
     </row>
     <row r="356">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>4.899699211120605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>4.899699211120605</v>
+        <v>6.467148303985596</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>5.171905040740967</v>
+        <v>10.50911617279053</v>
       </c>
     </row>
     <row r="362">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>2.222222328186035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>2.222222328186035</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="368">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>2.318367958068848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>2.591116905212402</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="374">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>2.960011720657349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>2.960011720657349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>2.960011720657349</v>
+        <v>6.983144283294678</v>
       </c>
     </row>
     <row r="380">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>3.153701066970825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>3.153701066970825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.328906536102295</v>
+        <v>7.320261478424072</v>
       </c>
     </row>
     <row r="386">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>3.697801351547241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>3.697801351547241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>3.697801351547241</v>
+        <v>8.122921943664551</v>
       </c>
     </row>
     <row r="392">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>3.852659463882446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>3.852659463882446</v>
+        <v>3.859649181365967</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>4.066696166992188</v>
+        <v>8.925581932067871</v>
       </c>
     </row>
     <row r="398">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>4.435590744018555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>4.435590744018555</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>4.435590744018555</v>
+        <v>9.033368110656738</v>
       </c>
     </row>
     <row r="404">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>4.551618099212646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>4.551618099212646</v>
+        <v>5.265451431274414</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>4.80448579788208</v>
+        <v>9.778695106506348</v>
       </c>
     </row>
     <row r="410">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>1.988304138183594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>4.901097297668457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>5.173380374908447</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>5.173380374908447</v>
+        <v>11.33356285095215</v>
       </c>
     </row>
     <row r="416">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>2.333589553833008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>2.105263233184814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>5.250576496124268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>5.250576496124268</v>
+        <v>6.934984683990479</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>5.542275428771973</v>
+        <v>11.26935005187988</v>
       </c>
     </row>
     <row r="422">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>2.592592477798462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>2.592592477798462</v>
+        <v>6.140350818634033</v>
       </c>
     </row>
     <row r="428">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>2.649751901626587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>2.961487293243408</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="434">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>3.330382108688354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>3.330382108688354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>3.330382108688354</v>
+        <v>7.860337257385254</v>
       </c>
     </row>
     <row r="440">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>3.504578113555908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>3.504578113555908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>3.699276924133301</v>
+        <v>8.138975143432617</v>
       </c>
     </row>
     <row r="446">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>4.068171977996826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>4.068171977996826</v>
+        <v>3.274853706359863</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>4.068171977996826</v>
+        <v>8.302947044372559</v>
       </c>
     </row>
     <row r="452">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>4.203536510467529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>4.203536510467529</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>4.437066555023193</v>
+        <v>9.744295120239258</v>
       </c>
     </row>
     <row r="458">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>4.805961132049561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>4.805961132049561</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>4.805961132049561</v>
+        <v>10.54695606231689</v>
       </c>
     </row>
     <row r="464">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>4.902495384216309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>4.902495384216309</v>
+        <v>6.485494613647461</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>5.174856185913086</v>
+        <v>10.5389289855957</v>
       </c>
     </row>
     <row r="470">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>2.046783685684204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>2.319688081741333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>4.960198402404785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>5.543750762939453</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>5.543750762939453</v>
+        <v>11.28425598144531</v>
       </c>
     </row>
     <row r="476">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>2.178343057632446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>2.456140279769897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>5.290261745452881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>5.60145378112793</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>5.912645816802979</v>
+        <v>12.02958393096924</v>
       </c>
     </row>
     <row r="482">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>2.962962865829468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>2.962962865829468</v>
+        <v>7.017543792724609</v>
       </c>
     </row>
     <row r="488">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>3.15649676322937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>3.15649676322937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>3.331857681274414</v>
+        <v>7.485380172729492</v>
       </c>
     </row>
     <row r="494">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>3.70075249671936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>3.70075249671936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>3.70075249671936</v>
+        <v>7.953216552734375</v>
       </c>
     </row>
     <row r="500">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>3.85545539855957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>3.85545539855957</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>4.069647312164307</v>
+        <v>8.957688331604004</v>
       </c>
     </row>
     <row r="506">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>4.438542366027832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>4.438542366027832</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>4.438542366027832</v>
+        <v>9.760348320007324</v>
       </c>
     </row>
     <row r="512">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>4.554413795471191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>4.554413795471191</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>4.807436943054199</v>
+        <v>9.808507919311523</v>
       </c>
     </row>
     <row r="518">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>2.027290344238281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>4.903892993927002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>5.176331520080566</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>5.176331520080566</v>
+        <v>11.36566925048828</v>
       </c>
     </row>
     <row r="524">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>2.042978286743164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>2.183235883712769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>5.253372669219971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>5.253372669219971</v>
+        <v>7.822497367858887</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>5.545226573944092</v>
+        <v>11.29916286468506</v>
       </c>
     </row>
     <row r="530">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>2.495126724243164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>2.651072025299072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>5.291582107543945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>5.914121150970459</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>5.914121150970459</v>
+        <v>12.04448986053467</v>
       </c>
     </row>
     <row r="536">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>2.645480394363403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>5.621645927429199</v>
+        <v>4.919160842895508</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>5.952331066131592</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>6.283016204833984</v>
+        <v>13.77365016937256</v>
       </c>
     </row>
     <row r="542">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>3.333333253860474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>3.333333253860474</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="548">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>3.507374048233032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>3.507374048233032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>3.70222806930542</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="554">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>4.071123123168945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>4.071123123168945</v>
+        <v>3.157894849777222</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>4.071123123168945</v>
+        <v>8.421052932739258</v>
       </c>
     </row>
     <row r="560">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>4.206332683563232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>4.206332683563232</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>4.440017700195312</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>4.80891227722168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>4.80891227722168</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>4.80891227722168</v>
+        <v>10.57906246185303</v>
       </c>
     </row>
     <row r="572">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>4.905291080474854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>4.905291080474854</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>5.177807331085205</v>
+        <v>10.56874179840088</v>
       </c>
     </row>
     <row r="578">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>2.105263233184814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>2.456140279769897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>4.962838649749756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>5.546701908111572</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>5.546701908111572</v>
+        <v>11.3140697479248</v>
       </c>
     </row>
     <row r="584">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>2.105263233184814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>2.456140279769897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>5.604249477386475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>5.604249477386475</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>5.915596961975098</v>
+        <v>12.05939674377441</v>
       </c>
     </row>
     <row r="590">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>5.622966289520264</v>
+        <v>4.924893856048584</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>6.284491539001465</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>6.284491539001465</v>
+        <v>12.80472469329834</v>
       </c>
     </row>
     <row r="596">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>2.80701756477356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>3.157894849777222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>5.953030109405518</v>
+        <v>5.21155834197998</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>6.303208351135254</v>
+        <v>9.473684310913086</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>6.65338659286499</v>
+        <v>14.59236335754395</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y0.xlsx
+++ b/exports/policy_y0.xlsx
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.357298374176025</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>4.873294353485107</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="38">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>5.159958839416504</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>6.421281814575195</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>7.338607788085938</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="56">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>7.739938259124756</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="62">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>3.687650442123413</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.180598735809326</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="92">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>5.867446422576904</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="98">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>6.03715181350708</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="104">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>6.437335014343262</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="110">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>7.757137775421143</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="116">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>8.617131233215332</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="122">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2.807008981704712</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.400871276855469</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>4.912280559539795</v>
+        <v>4.970745086669922</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>5.194358348846436</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="152">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>6.457974910736084</v>
+        <v>7.368398666381836</v>
       </c>
     </row>
     <row r="158">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>6.914344787597656</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>7.256048679351807</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>8.058709144592285</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="176">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>4.430684566497803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>9.49432373046875</v>
+        <v>10.29236602783203</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>3.333323240280151</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>3.724343538284302</v>
+        <v>3.976596117019653</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.221878051757812</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>5.906432628631592</v>
+        <v>5.96489429473877</v>
       </c>
     </row>
     <row r="206">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>6.071551322937012</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="212">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>6.469441413879395</v>
+        <v>7.953192234039307</v>
       </c>
     </row>
     <row r="218">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>7.791537761688232</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="224">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>8.074762344360352</v>
+        <v>11.11107730865479</v>
       </c>
     </row>
     <row r="230">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>3.804609537124634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>8.243320465087891</v>
+        <v>10.93563938140869</v>
       </c>
     </row>
     <row r="236">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>5.53147554397583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>9.680082321166992</v>
+        <v>11.22803592681885</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.44444465637207</v>
+        <v>4.444430828094482</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>4.951267242431641</v>
+        <v>4.970745086669922</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>5.228758335113525</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>6.494668006896973</v>
+        <v>6.959043025970459</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>6.948744297027588</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>7.288155078887939</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>8.090815544128418</v>
+        <v>9.356696128845215</v>
       </c>
     </row>
     <row r="284">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>3.811489582061768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>8.893475532531738</v>
+        <v>11.57891178131104</v>
       </c>
     </row>
     <row r="290">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>4.848067760467529</v>
+        <v>3.976596117019653</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>9.003554344177246</v>
+        <v>11.92978858947754</v>
       </c>
     </row>
     <row r="296">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>5.249398231506348</v>
+        <v>3.976596117019653</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>9.748882293701172</v>
+        <v>12.16370582580566</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.263157844543457</v>
+        <v>5.555538654327393</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>5.945419311523438</v>
+        <v>5.96489429473877</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>6.105951309204102</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="320">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>6.501547813415527</v>
+        <v>7.953192234039307</v>
       </c>
     </row>
     <row r="326">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>7.825937271118164</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="332">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>8.106868743896484</v>
+        <v>8.771903038024902</v>
       </c>
     </row>
     <row r="338">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>3.216374158859253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>8.273134231567383</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="344">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>4.856094360351562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>9.712188720703125</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="350">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>6.008485317230225</v>
+        <v>4.970745086669922</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>10.51484966278076</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="356">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>6.467148303985596</v>
+        <v>4.970745086669922</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>10.50911617279053</v>
+        <v>13.09937477111816</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5.263157844543457</v>
+        <v>6.666646480560303</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.666666507720947</v>
+        <v>6.959043025970459</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>6.983144283294678</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>7.320261478424072</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>8.122921943664551</v>
+        <v>9.356696128845215</v>
       </c>
     </row>
     <row r="392">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>3.859649181365967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>8.925581932067871</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>4.210526466369629</v>
+        <v>3.859637260437012</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>9.033368110656738</v>
+        <v>9.824531555175781</v>
       </c>
     </row>
     <row r="404">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>5.265451431274414</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>9.778695106506348</v>
+        <v>11.40347385406494</v>
       </c>
     </row>
     <row r="410">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>6.315789699554443</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>11.33356285095215</v>
+        <v>11.46195316314697</v>
       </c>
     </row>
     <row r="416">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>6.934984683990479</v>
+        <v>5.96489429473877</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>11.26935005187988</v>
+        <v>14.03504467010498</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>6.140350818634033</v>
+        <v>7.777753829956055</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>6.549707412719727</v>
+        <v>7.953192234039307</v>
       </c>
     </row>
     <row r="434">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>7.860337257385254</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="440">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>8.138975143432617</v>
+        <v>8.771903038024902</v>
       </c>
     </row>
     <row r="446">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>3.274853706359863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>8.302947044372559</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="452">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>4.912280559539795</v>
+        <v>4.093554973602295</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>9.744295120239258</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="458">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>5.321637630462646</v>
+        <v>4.912265777587891</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>10.54695606231689</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="464">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>6.485494613647461</v>
+        <v>5.321621417999268</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>10.5389289855957</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="470">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>7.368421077728271</v>
+        <v>5.321621417999268</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>11.28425598144531</v>
+        <v>12.28066444396973</v>
       </c>
     </row>
     <row r="476">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>7.368421077728271</v>
+        <v>6.549687385559082</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>12.02958393096924</v>
+        <v>13.09937477111816</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>7.017543792724609</v>
+        <v>8.888861656188965</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>7.485380172729492</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>7.953216552734375</v>
+        <v>9.356696128845215</v>
       </c>
     </row>
     <row r="500">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>4.210526466369629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>8.957688331604004</v>
+        <v>9.649093627929688</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>4.210526466369629</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>9.760348320007324</v>
+        <v>9.824531555175781</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>5.146198749542236</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>9.808507919311523</v>
+        <v>11.40347385406494</v>
       </c>
     </row>
     <row r="518">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>6.081871509552002</v>
+        <v>5.146183013916016</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>11.36566925048828</v>
+        <v>11.46195316314697</v>
       </c>
     </row>
     <row r="524">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>7.822497367858887</v>
+        <v>6.081852912902832</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>11.29916286468506</v>
+        <v>11.40347385406494</v>
       </c>
     </row>
     <row r="530">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>8.421052932739258</v>
+        <v>6.081852912902832</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>12.04448986053467</v>
+        <v>13.09937477111816</v>
       </c>
     </row>
     <row r="536">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>4.919160842895508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>8.421052932739258</v>
+        <v>6.549687385559082</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>13.77365016937256</v>
+        <v>13.91808605194092</v>
       </c>
     </row>
     <row r="542">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>8.421052932739258</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="548">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>8.421052932739258</v>
+        <v>8.947340965270996</v>
       </c>
     </row>
     <row r="554">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>3.157894849777222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>8.421052932739258</v>
+        <v>9.999969482421875</v>
       </c>
     </row>
     <row r="560">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>5.263157844543457</v>
+        <v>4.210513591766357</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>10</v>
+        <v>10.52628326416016</v>
       </c>
     </row>
     <row r="566">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>5.263157844543457</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>10.57906246185303</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="572">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>5.263157844543457</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>10.56874179840088</v>
+        <v>10.64324283599854</v>
       </c>
     </row>
     <row r="578">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>7.368421077728271</v>
+        <v>5.263141632080078</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>11.3140697479248</v>
+        <v>12.28066444396973</v>
       </c>
     </row>
     <row r="584">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>7.368421077728271</v>
+        <v>6.315770149230957</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>12.05939674377441</v>
+        <v>13.09937477111816</v>
       </c>
     </row>
     <row r="590">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>4.924893856048584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>8.947368621826172</v>
+        <v>7.368398666381836</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>12.80472469329834</v>
+        <v>12.92393684387207</v>
       </c>
     </row>
     <row r="596">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>5.21155834197998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>9.473684310913086</v>
+        <v>7.368398666381836</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>14.59236335754395</v>
+        <v>14.73679733276367</v>
       </c>
     </row>
   </sheetData>

--- a/exports/policy_y0.xlsx
+++ b/exports/policy_y0.xlsx
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="26">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="32">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="38">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="44">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="50">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="56">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="80">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="86">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="92">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="98">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="104">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="110">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="122">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>2.807008981704712</v>
+        <v>2.80701756477356</v>
       </c>
     </row>
     <row r="134">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="140">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>4.970745086669922</v>
+        <v>4.970760345458984</v>
       </c>
     </row>
     <row r="146">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="152">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>7.368398666381836</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="158">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="164">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="176">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>10.29236602783203</v>
+        <v>10.29239749908447</v>
       </c>
     </row>
     <row r="182">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>3.333323240280151</v>
+        <v>3.333333253860474</v>
       </c>
     </row>
     <row r="188">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>3.976596117019653</v>
+        <v>3.976608276367188</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="200">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>5.96489429473877</v>
+        <v>5.964912414550781</v>
       </c>
     </row>
     <row r="206">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="212">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>7.953192234039307</v>
+        <v>7.953216552734375</v>
       </c>
     </row>
     <row r="218">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>11.11107730865479</v>
+        <v>11.11111068725586</v>
       </c>
     </row>
     <row r="230">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>10.93563938140869</v>
+        <v>10.93567276000977</v>
       </c>
     </row>
     <row r="236">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>11.22803592681885</v>
+        <v>11.22807025909424</v>
       </c>
     </row>
     <row r="242">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>4.444430828094482</v>
+        <v>4.44444465637207</v>
       </c>
     </row>
     <row r="248">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>4.970745086669922</v>
+        <v>4.970760345458984</v>
       </c>
     </row>
     <row r="254">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="260">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>6.959043025970459</v>
+        <v>6.959064483642578</v>
       </c>
     </row>
     <row r="266">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="272">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="278">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>9.356696128845215</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="284">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>11.57891178131104</v>
+        <v>11.57894706726074</v>
       </c>
     </row>
     <row r="290">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>3.976596117019653</v>
+        <v>3.976608276367188</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>11.92978858947754</v>
+        <v>11.92982482910156</v>
       </c>
     </row>
     <row r="296">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>3.976596117019653</v>
+        <v>3.976608276367188</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>12.16370582580566</v>
+        <v>12.163743019104</v>
       </c>
     </row>
     <row r="302">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>5.555538654327393</v>
+        <v>5.55555534362793</v>
       </c>
     </row>
     <row r="308">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>5.96489429473877</v>
+        <v>5.964912414550781</v>
       </c>
     </row>
     <row r="314">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="320">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>7.953192234039307</v>
+        <v>7.953216552734375</v>
       </c>
     </row>
     <row r="326">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="332">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>8.771903038024902</v>
+        <v>8.771929740905762</v>
       </c>
     </row>
     <row r="338">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="344">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="350">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>4.970745086669922</v>
+        <v>4.970760345458984</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="356">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>4.970745086669922</v>
+        <v>4.970760345458984</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>13.09937477111816</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="362">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>6.666646480560303</v>
+        <v>6.666666507720947</v>
       </c>
     </row>
     <row r="368">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.959043025970459</v>
+        <v>6.959064483642578</v>
       </c>
     </row>
     <row r="374">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="380">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="386">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>9.356696128845215</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="392">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="398">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>3.859637260437012</v>
+        <v>3.859649181365967</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>9.824531555175781</v>
+        <v>9.82456111907959</v>
       </c>
     </row>
     <row r="404">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>11.40347385406494</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="410">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>11.46195316314697</v>
+        <v>11.46198844909668</v>
       </c>
     </row>
     <row r="416">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>5.96489429473877</v>
+        <v>5.964912414550781</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>14.03504467010498</v>
+        <v>14.03508758544922</v>
       </c>
     </row>
     <row r="422">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>7.777753829956055</v>
+        <v>7.777777671813965</v>
       </c>
     </row>
     <row r="428">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>7.953192234039307</v>
+        <v>7.953216552734375</v>
       </c>
     </row>
     <row r="434">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="440">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>8.771903038024902</v>
+        <v>8.771929740905762</v>
       </c>
     </row>
     <row r="446">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="452">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>4.093554973602295</v>
+        <v>4.093567371368408</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="458">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>4.912265777587891</v>
+        <v>4.912280559539795</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="464">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>5.321621417999268</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="470">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>5.321621417999268</v>
+        <v>5.321637630462646</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>12.28066444396973</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="476">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>6.549687385559082</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>13.09937477111816</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="482">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>8.888861656188965</v>
+        <v>8.888889312744141</v>
       </c>
     </row>
     <row r="488">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="494">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>9.356696128845215</v>
+        <v>9.356724739074707</v>
       </c>
     </row>
     <row r="500">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>9.649093627929688</v>
+        <v>9.649123191833496</v>
       </c>
     </row>
     <row r="506">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>9.824531555175781</v>
+        <v>9.82456111907959</v>
       </c>
     </row>
     <row r="512">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>11.40347385406494</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="518">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>5.146183013916016</v>
+        <v>5.146198749542236</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>11.46195316314697</v>
+        <v>11.46198844909668</v>
       </c>
     </row>
     <row r="524">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>6.081852912902832</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>11.40347385406494</v>
+        <v>11.40350914001465</v>
       </c>
     </row>
     <row r="530">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>6.081852912902832</v>
+        <v>6.081871509552002</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>13.09937477111816</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="536">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>6.549687385559082</v>
+        <v>6.549707412719727</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>13.91808605194092</v>
+        <v>13.91812896728516</v>
       </c>
     </row>
     <row r="542">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="548">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>8.947340965270996</v>
+        <v>8.947368621826172</v>
       </c>
     </row>
     <row r="554">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>9.999969482421875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="560">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>4.210513591766357</v>
+        <v>4.210526466369629</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>10.52628326416016</v>
+        <v>10.52631568908691</v>
       </c>
     </row>
     <row r="566">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="572">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>10.64324283599854</v>
+        <v>10.64327526092529</v>
       </c>
     </row>
     <row r="578">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>5.263141632080078</v>
+        <v>5.263157844543457</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>12.28066444396973</v>
+        <v>12.28070163726807</v>
       </c>
     </row>
     <row r="584">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>6.315770149230957</v>
+        <v>6.315789699554443</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>13.09937477111816</v>
+        <v>13.09941482543945</v>
       </c>
     </row>
     <row r="590">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>7.368398666381836</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>12.92393684387207</v>
+        <v>12.92397689819336</v>
       </c>
     </row>
     <row r="596">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>7.368398666381836</v>
+        <v>7.368421077728271</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>14.73679733276367</v>
+        <v>14.73684215545654</v>
       </c>
     </row>
   </sheetData>
